--- a/Data logger BOM.xlsx
+++ b/Data logger BOM.xlsx
@@ -1,12 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="630" yWindow="630" windowWidth="22695" windowHeight="10935"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -403,20 +407,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -424,7 +431,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -434,41 +441,39 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -658,27 +663,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="34.86"/>
-    <col customWidth="1" min="3" max="3" width="17.71"/>
-    <col customWidth="1" min="4" max="4" width="29.71"/>
-    <col customWidth="1" min="5" max="5" width="26.14"/>
-    <col customWidth="1" min="6" max="6" width="29.71"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,7 +714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -731,7 +741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -758,7 +768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -785,7 +795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -812,7 +822,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -839,7 +849,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -866,7 +876,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -893,7 +903,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -920,7 +930,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
@@ -940,14 +950,14 @@
         <v>60</v>
       </c>
       <c r="G10" s="1">
-        <f>100*CEILING(B24/25)</f>
+        <f>100*CEILING(B24/25, 1)</f>
         <v>100</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -974,7 +984,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>69</v>
       </c>
@@ -1001,7 +1011,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -1028,7 +1038,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>83</v>
       </c>
@@ -1055,7 +1065,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>89</v>
       </c>
@@ -1082,7 +1092,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>95</v>
       </c>
@@ -1109,7 +1119,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>101</v>
       </c>
@@ -1136,7 +1146,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>107</v>
       </c>
@@ -1163,7 +1173,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>112</v>
       </c>
@@ -1190,7 +1200,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>119</v>
       </c>
@@ -1215,7 +1225,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>124</v>
       </c>
@@ -1242,37 +1252,37 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B24" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H2"/>
-    <hyperlink r:id="rId2" ref="H3"/>
-    <hyperlink r:id="rId3" ref="H4"/>
-    <hyperlink r:id="rId4" ref="H5"/>
-    <hyperlink r:id="rId5" ref="H6"/>
-    <hyperlink r:id="rId6" ref="H7"/>
-    <hyperlink r:id="rId7" ref="H8"/>
-    <hyperlink r:id="rId8" ref="H9"/>
-    <hyperlink r:id="rId9" ref="H10"/>
-    <hyperlink r:id="rId10" ref="H11"/>
-    <hyperlink r:id="rId11" ref="H12"/>
-    <hyperlink r:id="rId12" ref="H13"/>
-    <hyperlink r:id="rId13" ref="H14"/>
-    <hyperlink r:id="rId14" ref="H15"/>
-    <hyperlink r:id="rId15" ref="H16"/>
-    <hyperlink r:id="rId16" ref="H17"/>
-    <hyperlink r:id="rId17" ref="H18"/>
-    <hyperlink r:id="rId18" ref="H19"/>
-    <hyperlink r:id="rId19" ref="H20"/>
-    <hyperlink r:id="rId20" ref="H21"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H6" r:id="rId5"/>
+    <hyperlink ref="H7" r:id="rId6"/>
+    <hyperlink ref="H8" r:id="rId7"/>
+    <hyperlink ref="H9" r:id="rId8"/>
+    <hyperlink ref="H10" r:id="rId9"/>
+    <hyperlink ref="H11" r:id="rId10"/>
+    <hyperlink ref="H12" r:id="rId11"/>
+    <hyperlink ref="H13" r:id="rId12"/>
+    <hyperlink ref="H14" r:id="rId13"/>
+    <hyperlink ref="H15" r:id="rId14"/>
+    <hyperlink ref="H16" r:id="rId15"/>
+    <hyperlink ref="H17" r:id="rId16"/>
+    <hyperlink ref="H18" r:id="rId17"/>
+    <hyperlink ref="H19" r:id="rId18"/>
+    <hyperlink ref="H20" r:id="rId19"/>
+    <hyperlink ref="H21" r:id="rId20"/>
   </hyperlinks>
-  <drawing r:id="rId21"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>